--- a/ON/bt/strategyON_20230710.xlsx
+++ b/ON/bt/strategyON_20230710.xlsx
@@ -600,7 +600,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>49.4%</t>
+          <t>49.3%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -628,12 +628,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>68.5%</t>
+          <t>68.4%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -741,7 +741,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>67.7%</t>
+          <t>67.4%</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>86.7%</t>
+          <t>86.5%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>73.0%</t>
+          <t>72.9%</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>17.0%</t>
+          <t>16.8%</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>457.5%</t>
+          <t>457.4%</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>5.5%</t>
+          <t>5.7%</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>111.0%</t>
+          <t>110.8%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>106.6%</t>
+          <t>106.4%</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>19.2%</t>
+          <t>19.1%</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>1.2%</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>144.1%</t>
+          <t>143.9%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-07-08</t>
+          <t>2023-07-09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>138.2%</t>
+          <t>138.1%</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>17.6%</t>
+          <t>17.5%</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1653"/>
+  <dimension ref="A1:G1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39539,7 +39539,7 @@
         <v>45115</v>
       </c>
       <c r="B1653" t="n">
-        <v>2.912117716567558</v>
+        <v>2.912505497568403</v>
       </c>
       <c r="C1653" t="n">
         <v>3.025342553364132</v>
@@ -39555,6 +39555,29 @@
       </c>
       <c r="G1653" t="n">
         <v>4.287055649436441</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45116</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>2.9093365847419</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>3.022856975374514</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>1.481118940247135</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>3.614948127159621</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>2.10488154680473</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>4.285785903457354</v>
       </c>
     </row>
   </sheetData>
